--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/ALASKA_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/ALASKA_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C3">
@@ -527,7 +527,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C12">
@@ -584,7 +584,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -654,7 +654,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -672,7 +672,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C22">
@@ -729,7 +729,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C26">
@@ -760,7 +760,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C28">
@@ -786,7 +786,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C30">
@@ -812,7 +812,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C32">
@@ -869,7 +869,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C36">
@@ -921,7 +921,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C40">
@@ -960,7 +960,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C43">
@@ -1012,7 +1012,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C47">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C61">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C67">
@@ -1310,7 +1310,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C68">
@@ -1336,7 +1336,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C70">
@@ -1507,7 +1507,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C82">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C84">
@@ -1551,7 +1551,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C85">
@@ -1668,41 +1668,6 @@
       </c>
       <c r="D93">
         <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/ALASKA_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/ALASKA_2021.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Rincón De Romos</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Guachochi</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -670,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -683,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -696,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
@@ -727,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Silao De La Victoria</t>
@@ -740,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Total</t>
@@ -771,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Metepec</t>
@@ -784,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -797,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Tecozautla</t>
@@ -810,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -823,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Total</t>
@@ -854,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -867,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Ixtlahuacán De Los Membrillos</t>
@@ -880,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Jalostotitlán</t>
@@ -893,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>La Barca</t>
@@ -906,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -919,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Ojuelos De Jalisco</t>
@@ -932,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>San Julián</t>
@@ -945,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -958,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -971,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Tequila</t>
@@ -984,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -997,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1010,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Valle De Guadalupe</t>
@@ -1023,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Villa Purificación</t>
@@ -1036,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1067,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Charo</t>
@@ -1080,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Churintzio</t>
@@ -1093,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Ecuandureo</t>
@@ -1106,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1119,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Sahuayo</t>
@@ -1132,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -1145,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1176,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -1189,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1220,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -1233,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1264,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -1277,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1308,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -1321,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -1334,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -1347,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1378,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1391,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Quimixtlán</t>
@@ -1404,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>San Andrés Cholula</t>
@@ -1417,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -1430,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -1443,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1474,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1505,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Nacozari De García</t>
@@ -1518,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1549,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -1562,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -1575,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1606,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Luis Moya</t>
@@ -1619,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Monte Escobedo</t>
@@ -1632,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Ojocaliente</t>
@@ -1645,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Total</t>
